--- a/data/output.xlsx
+++ b/data/output.xlsx
@@ -397,10 +397,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
+  <cols>
+    <col min="1" max="1" width="15.83203125" customWidth="1"/>
+    <col min="2" max="2" width="50.83203125" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" customWidth="1"/>
+    <col min="5" max="5" width="25.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
@@ -427,13 +434,13 @@
         <v>Acetate#ELDRM0001T 170x700x6.0mm(0.9kg/st)</v>
       </c>
       <c r="C2">
-        <v>13.403</v>
+        <v>13.5</v>
       </c>
       <c r="D2" t="str">
         <v>AC</v>
       </c>
       <c r="E2" t="str">
-        <v>AC 13.403, SC rest</v>
+        <v>AC 13.5, SC rest</v>
       </c>
     </row>
     <row r="3">
@@ -444,13 +451,13 @@
         <v>Acetate#ELDRM0001T 170x700x6.0mm(0.9kg/st)</v>
       </c>
       <c r="C3">
-        <v>19.741000000000007</v>
+        <v>31.9</v>
       </c>
       <c r="D3" t="str">
         <v>SC</v>
       </c>
       <c r="E3" t="str">
-        <v>AC 13.403, SC rest</v>
+        <v>AC 13.5, SC rest</v>
       </c>
     </row>
     <row r="4">
@@ -461,7 +468,7 @@
         <v>Acetate#ELMT1024 165x1450x4.0mm(1.3kg/st)</v>
       </c>
       <c r="C4">
-        <v>1.3780000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="D4" t="str">
         <v>SC</v>
@@ -478,7 +485,7 @@
         <v>Acetate#ELSPH0025 160x690x8.0/1.17</v>
       </c>
       <c r="C5">
-        <v>6.546</v>
+        <v>7.02</v>
       </c>
       <c r="D5" t="str">
         <v>AC</v>
@@ -489,16 +496,16 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>TAC11179620</v>
+        <v>TAC11173780</v>
       </c>
       <c r="B6" t="str">
-        <v>Acetate#ELMT2478 165x1450x6.0/1.9</v>
+        <v>Acetate#ELSPH0025 160x690x8.0/1.17</v>
       </c>
       <c r="C6">
-        <v>2.601</v>
+        <v>22.3</v>
       </c>
       <c r="D6" t="str">
-        <v>AC</v>
+        <v>SC</v>
       </c>
       <c r="E6" t="str">
         <v/>
@@ -506,19 +513,19 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>TAC11179670</v>
+        <v>TAC11179620</v>
       </c>
       <c r="B7" t="str">
-        <v>Acetate#ELLAM2446 165x690x6.0/0.92</v>
+        <v>Acetate#ELMT2478 165x1450x6.0/1.9</v>
       </c>
       <c r="C7">
-        <v>2.124</v>
+        <v>3.8</v>
       </c>
       <c r="D7" t="str">
         <v>AC</v>
       </c>
       <c r="E7" t="str">
-        <v>AC 2.124, SC rest</v>
+        <v/>
       </c>
     </row>
     <row r="8">
@@ -529,30 +536,30 @@
         <v>Acetate#ELLAM2446 165x690x6.0/0.92</v>
       </c>
       <c r="C8">
-        <v>-0.5960000000000001</v>
+        <v>22.397</v>
       </c>
       <c r="D8" t="str">
-        <v>SC</v>
+        <v>AC</v>
       </c>
       <c r="E8" t="str">
-        <v>AC 2.124, SC rest</v>
+        <v>AC 22.397, SC rest</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>TAC11179680</v>
+        <v>TAC11179670</v>
       </c>
       <c r="B9" t="str">
-        <v>Acetate#ELLAM2446 165x690x8.0/1.23</v>
+        <v>Acetate#ELLAM2446 165x690x6.0/0.92</v>
       </c>
       <c r="C9">
-        <v>12.64</v>
+        <v>1.8</v>
       </c>
       <c r="D9" t="str">
-        <v>AC</v>
+        <v>SC</v>
       </c>
       <c r="E9" t="str">
-        <v>AC 12.64, SC rest</v>
+        <v>AC 22.397, SC rest</v>
       </c>
     </row>
     <row r="10">
@@ -563,13 +570,13 @@
         <v>Acetate#ELLAM2446 165x690x8.0/1.23</v>
       </c>
       <c r="C10">
-        <v>59.400000000000006</v>
+        <v>18.312</v>
       </c>
       <c r="D10" t="str">
-        <v>SC</v>
+        <v>AC</v>
       </c>
       <c r="E10" t="str">
-        <v>AC 12.64, SC rest</v>
+        <v>AC 18.312, SC rest</v>
       </c>
     </row>
     <row r="11">
@@ -580,27 +587,27 @@
         <v>Acetate#ELLAM2446 165x690x8.0/1.23</v>
       </c>
       <c r="C11">
-        <v>1.2</v>
+        <v>15.6</v>
       </c>
       <c r="D11" t="str">
-        <v/>
+        <v>SC</v>
       </c>
       <c r="E11" t="str">
-        <v/>
+        <v>AC 18.312, SC rest</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>TAC11179770</v>
+        <v>TAC11179680</v>
       </c>
       <c r="B12" t="str">
-        <v>Acetate#ELMM1703 170x1450x4.0/1.3</v>
+        <v>Acetate#ELLAM2446 165x690x8.0/1.23</v>
       </c>
       <c r="C12">
-        <v>3.59</v>
+        <v>1.2</v>
       </c>
       <c r="D12" t="str">
-        <v>AC</v>
+        <v/>
       </c>
       <c r="E12" t="str">
         <v/>
@@ -608,19 +615,19 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>TAC11181200</v>
+        <v>TAC11179770</v>
       </c>
       <c r="B13" t="str">
-        <v>Acetate#ELSH0015 165x1450x6.0/1.9</v>
+        <v>Acetate#ELMM1703 170x1450x4.0/1.3</v>
       </c>
       <c r="C13">
-        <v>37.85</v>
+        <v>6.5</v>
       </c>
       <c r="D13" t="str">
         <v>AC</v>
       </c>
       <c r="E13" t="str">
-        <v>AC 37.85, SC rest</v>
+        <v/>
       </c>
     </row>
     <row r="14">
@@ -631,13 +638,13 @@
         <v>Acetate#ELSH0015 165x1450x6.0/1.9</v>
       </c>
       <c r="C14">
-        <v>-1.0420000000000016</v>
+        <v>38</v>
       </c>
       <c r="D14" t="str">
-        <v>SC</v>
+        <v>AC</v>
       </c>
       <c r="E14" t="str">
-        <v>AC 37.85, SC rest</v>
+        <v>AC 38, SC rest</v>
       </c>
     </row>
     <row r="15">
@@ -648,13 +655,13 @@
         <v>Acetate#ELSH0015 165x1450x6.0/1.9</v>
       </c>
       <c r="C15">
-        <v>37.9</v>
+        <v>36.3</v>
       </c>
       <c r="D15" t="str">
-        <v/>
+        <v>SC</v>
       </c>
       <c r="E15" t="str">
-        <v/>
+        <v>AC 38, SC rest</v>
       </c>
     </row>
     <row r="16">
@@ -665,7 +672,7 @@
         <v>Acetate#ELSH0015 165x1450x6.0/1.9</v>
       </c>
       <c r="C16">
-        <v>1.9</v>
+        <v>37.9</v>
       </c>
       <c r="D16" t="str">
         <v/>
@@ -676,19 +683,19 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>TAC11181440</v>
+        <v>TAC11181200</v>
       </c>
       <c r="B17" t="str">
-        <v>Acetate#ELMO2105 165x1450x4.0/1.3</v>
+        <v>Acetate#ELSH0015 165x1450x6.0/1.9</v>
       </c>
       <c r="C17">
-        <v>0.9630000000000001</v>
+        <v>1.9</v>
       </c>
       <c r="D17" t="str">
-        <v>AC</v>
+        <v/>
       </c>
       <c r="E17" t="str">
-        <v>AC 0.9630000000000001, SC rest</v>
+        <v/>
       </c>
     </row>
     <row r="18">
@@ -699,44 +706,44 @@
         <v>Acetate#ELMO2105 165x1450x4.0/1.3</v>
       </c>
       <c r="C18">
-        <v>1.029</v>
+        <v>2.6</v>
       </c>
       <c r="D18" t="str">
-        <v>SC</v>
+        <v>AC</v>
       </c>
       <c r="E18" t="str">
-        <v>AC 0.9630000000000001, SC rest</v>
+        <v>AC 2.6, SC rest</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>TAC11184580</v>
+        <v>TAC11181440</v>
       </c>
       <c r="B19" t="str">
-        <v>Acetate#ELMT2483 165x1450x8.0/2.63</v>
+        <v>Acetate#ELMO2105 165x1450x4.0/1.3</v>
       </c>
       <c r="C19">
-        <v>7.062</v>
+        <v>2.6</v>
       </c>
       <c r="D19" t="str">
-        <v>AC</v>
+        <v>SC</v>
       </c>
       <c r="E19" t="str">
-        <v/>
+        <v>AC 2.6, SC rest</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>TAC11187880</v>
+        <v>TAC11184580</v>
       </c>
       <c r="B20" t="str">
-        <v>Acetate#ELMJ1080 170x1400x8.0/2.63</v>
+        <v>Acetate#ELMT2483 165x1450x8.0/2.63</v>
       </c>
       <c r="C20">
-        <v>77.641</v>
+        <v>7.89</v>
       </c>
       <c r="D20" t="str">
-        <v>SC</v>
+        <v>AC</v>
       </c>
       <c r="E20" t="str">
         <v/>
@@ -744,24 +751,58 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
+        <v>TAC11184580</v>
+      </c>
+      <c r="B21" t="str">
+        <v>Acetate#ELMT2483 165x1450x8.0/2.63</v>
+      </c>
+      <c r="C21">
+        <v>30.6</v>
+      </c>
+      <c r="D21" t="str">
+        <v>SC</v>
+      </c>
+      <c r="E21" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>TAC11187880</v>
+      </c>
+      <c r="B22" t="str">
+        <v>Acetate#ELMJ1080 170x1400x8.0/2.63</v>
+      </c>
+      <c r="C22">
+        <v>27</v>
+      </c>
+      <c r="D22" t="str">
+        <v>SC</v>
+      </c>
+      <c r="E22" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
         <v>TAF11178770</v>
       </c>
-      <c r="B21" t="str">
+      <c r="B23" t="str">
         <v>Bio Acetate#ELBMO3153 165x1450x4.0/1.3</v>
       </c>
-      <c r="C21">
-        <v>4.978</v>
-      </c>
-      <c r="D21" t="str">
-        <v>AC</v>
-      </c>
-      <c r="E21" t="str">
+      <c r="C23">
+        <v>10.4</v>
+      </c>
+      <c r="D23" t="str">
+        <v>AC</v>
+      </c>
+      <c r="E23" t="str">
         <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E21"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E23"/>
   </ignoredErrors>
 </worksheet>
 </file>